--- a/엑셇 0326.xlsx
+++ b/엑셇 0326.xlsx
@@ -26,195 +26,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>관리번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>공연명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>공연장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>관람등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>공연일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>관람료
 (단위:원)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예매수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>관람가능
 좌석수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예매순위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JSM-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GGM-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CHM-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SGM-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BPM-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HJM-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AFM-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LOM-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>고양이어울림누리의 관람료(단위:원) 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>가족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가족</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>크리스마스 선물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>호두까기 인형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>구름빵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>버블매직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>무지개 물고기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>백조의 호수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>구두쇠 아저시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>고양이어울림누리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>킨텍스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>고양이어울림누리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>세종문화회관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>세종문화회관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>세종문화회관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>고양이어울림누리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>킨텍스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>세종문화회관의 공연 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>9세 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>9세 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>14세 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7세 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7세 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>9세 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>14세 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>최고 관람료(단위:원)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>공연명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예매수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="#,##0&quot;매&quot;"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,15 +253,21 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -286,36 +307,276 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -329,6 +590,149 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="가로로 말린 두루마리 모양 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="0"/>
+          <a:ext cx="5191125" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="horizontalScroll">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>월 크리스마스 공연 예매 현황</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5705475" y="123825"/>
+          <a:ext cx="2028825" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -594,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="U12" sqref="U11:U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -614,268 +1018,272 @@
   <sheetData>
     <row r="1" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+    <row r="3" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="C5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="16">
         <v>44190</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="23">
         <v>5000</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="25">
         <v>2954</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="4">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3">
         <v>44190</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="24">
         <v>3000</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="26">
         <v>2719</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="4">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3">
         <v>44189</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="24">
         <v>3000</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="26">
         <v>1598</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="4">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3">
         <v>44190</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="24">
         <v>6000</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="26">
         <v>1800</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="4">
+        <v>40</v>
+      </c>
+      <c r="F9" s="3">
         <v>44191</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="24">
         <v>3000</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="26">
         <v>1667</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="4">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3">
         <v>44191</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="24">
         <v>5000</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="26">
         <v>1705</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="4">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3">
         <v>44191</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="24">
         <v>5000</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="26">
         <v>1521</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="4">
+        <v>42</v>
+      </c>
+      <c r="F12" s="3">
         <v>44189</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="24">
         <v>5000</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="26">
         <v>3752</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
+    <row r="14" spans="2:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="H14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="13"/>
     </row>
+    <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B13:D13"/>
@@ -883,9 +1291,15 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:I13"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
+      <formula1>$C$5:$C$12</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -897,7 +1311,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -910,7 +1324,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/엑셇 0326.xlsx
+++ b/엑셇 0326.xlsx
@@ -1001,7 +1001,7 @@
   <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U11:U12"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
